--- a/inst/data-demo/quadra_data.xlsx
+++ b/inst/data-demo/quadra_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad #1_ Validación de ..." sheetId="1" state="visible" r:id="rId1"/>
@@ -422,7 +422,7 @@
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">Necesidades Básicas</t>
+    <t xml:space="preserve">Basic needs</t>
   </si>
   <si>
     <t>0.643758929580584</t>
@@ -440,7 +440,7 @@
     <t>PerfilDemografico</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfil demográfico</t>
+    <t xml:space="preserve">demographic profile</t>
   </si>
   <si>
     <t>0.512818807536227</t>
@@ -452,7 +452,7 @@
     <t>CondicionesVivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">Condiciones de vivienda</t>
+    <t xml:space="preserve">housing conditions</t>
   </si>
   <si>
     <t>0.926899998426564</t>
@@ -464,7 +464,7 @@
     <t>CapacidadesAfrontamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Capacidades de Afrontamiento</t>
+    <t xml:space="preserve">coping skills</t>
   </si>
   <si>
     <t>0.459227115628366</t>
@@ -476,7 +476,7 @@
     <t>ProteccionIntegracion</t>
   </si>
   <si>
-    <t xml:space="preserve">Protección, Integración e Intenciones</t>
+    <t xml:space="preserve">Protection, Integration and Intentions</t>
   </si>
   <si>
     <t>0.241992435252139</t>
@@ -1040,10 +1040,10 @@
     <t>healthacc</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a servicios de salud cuando se necesite (en los últimos 3 meses)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pudo o no pudo acceder a servicios.</t>
+    <t xml:space="preserve">Access to health services when needed (in the last 3 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You were able or unable to access services.</t>
   </si>
   <si>
     <t>groups</t>
@@ -1055,7 +1055,7 @@
     <t>water</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a agua potable</t>
+    <t xml:space="preserve">Access to drinking water</t>
   </si>
   <si>
     <t>4_3_3</t>
@@ -1064,10 +1064,10 @@
     <t>food</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a comidas por día en la última semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evalúa número de comidas al día</t>
+    <t xml:space="preserve">Access to meals per day in the last week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate number of meals per day</t>
   </si>
   <si>
     <t>4_3_4</t>
@@ -1076,43 +1076,43 @@
     <t>hygiene</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a artículos básicos de higiene en el último mes</t>
+    <t xml:space="preserve">Access to basic hygiene items in the last month</t>
   </si>
   <si>
     <t>riskprofile</t>
   </si>
   <si>
-    <t xml:space="preserve">Presencia de perfiles específicos (de riesgo) en el hogar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluye: mujeres embarazadas o lactantes, menores o adolescentes no acompañadors, adultos mayores, cuidador solo, LGBTIQ.</t>
+    <t xml:space="preserve">Presence of specific (risk) profiles in the home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes: pregnant or lactating women, unaccompanied minors or adolescents, older adults, single caregiver, LGBTIQ.</t>
   </si>
   <si>
     <t>healthrisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Presencia de perfiles de riesgo en función de la salud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al menos una persona en el hogar tiene: condiciones médicas graves, discapacidades, son adultos mayores.</t>
+    <t xml:space="preserve">Presence of risk profiles based on health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one person in the household has: serious medical conditions, disabilities, is an older adult.</t>
   </si>
   <si>
     <t>language</t>
   </si>
   <si>
-    <t xml:space="preserve">Habilidad de lenguaje del cabeza de familia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cabeza de familiar habla o no habla español.</t>
+    <t xml:space="preserve">Language ability of the head of the family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The head of the family speaks or does not speak Spanish.</t>
   </si>
   <si>
     <t>dependency</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasa de dependencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de miembros en edad y capacidad para trabajar como proporción del número total de miembros del hogar.</t>
+    <t xml:space="preserve">dependency ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of members of age and ability to work as a proportion of the total number of household members.</t>
   </si>
   <si>
     <t>4_4_1</t>
@@ -1121,10 +1121,10 @@
     <t>toilet</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a baño (privado o compartido)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considerando si tiene acceso, o el acceso es privado o compartido</t>
+    <t xml:space="preserve">Access to bathroom (private or shared)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering if you have access, or the access is private or shared</t>
   </si>
   <si>
     <t>4_4_2</t>
@@ -1133,7 +1133,7 @@
     <t>rent</t>
   </si>
   <si>
-    <t xml:space="preserve">Costo mensual de alquiler</t>
+    <t xml:space="preserve">Monthly rental cost</t>
   </si>
   <si>
     <t>4_4_3</t>
@@ -1142,7 +1142,7 @@
     <t>electricity</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a la energía (electricidad, gas, etc.)</t>
+    <t xml:space="preserve">Access to energy (electricity, gas, etc.)</t>
   </si>
   <si>
     <t>4_4_4</t>
@@ -1151,10 +1151,10 @@
     <t>housing</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de vivienda/alojamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluye: propia, alquiler, albergue, alojado, a cambio de trabajo o servicios, hacinamiento, asenamiento informal, situación de calle.</t>
+    <t xml:space="preserve">Type of home/accommodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes: own, rent, shelter, housed, in exchange for work or services, overcrowding, informal settlement, street situation.</t>
   </si>
   <si>
     <t>5_3_1</t>
@@ -1163,10 +1163,10 @@
     <t>copingneg</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de mecanismos de afrontamiento negativos en los últimos 3 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De una lista estándar. Divididos en niveles: neutrales o sin usar, estresado o extremos.</t>
+    <t xml:space="preserve">Use of negative coping mechanisms in the last 3 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From a standard list. Divided into levels: neutral or unused, stressed or extreme.</t>
   </si>
   <si>
     <t>5_3_2</t>
@@ -1175,7 +1175,7 @@
     <t>carenet</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a redes de apoyo</t>
+    <t xml:space="preserve">Access to support networks</t>
   </si>
   <si>
     <t>5_3_3</t>
@@ -1184,10 +1184,10 @@
     <t>work</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a fuentes de ingresos en la última semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se evalúa el tipo de fuente. Si genera ingresos por cuenta propia o depende de otros (ej. Remesas).</t>
+    <t xml:space="preserve">Access to sources of income in the last week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The source type is evaluated. If you generate income on your own or depend on others (eg remittances).</t>
   </si>
   <si>
     <t>5_3_4</t>
@@ -1196,10 +1196,10 @@
     <t>assistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Recibó asistencia en los últimos (rango de tiempo) / actualmente recibe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recibe asistencias como: de vivienda, remesas, pensión, pensión alimenticia, etc.</t>
+    <t xml:space="preserve">Received assistance in the last (time range) / currently receives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive assistance such as: housing, remittances, pension, alimony, etc.</t>
   </si>
   <si>
     <t>5_3_5</t>
@@ -1208,7 +1208,7 @@
     <t>expenditure</t>
   </si>
   <si>
-    <t xml:space="preserve">Gastos en el último mes</t>
+    <t xml:space="preserve">Expenses in the last month</t>
   </si>
   <si>
     <t>5_2_1</t>
@@ -1217,10 +1217,10 @@
     <t>protinci</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimentó incidente de protección en los últimos 3 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puede estar dividido en niveles: ningún incidente, incidentes de vulnerabilidad media, incidentes de vulnerabilidad alta.</t>
+    <t xml:space="preserve">Experienced protection incident in the last 3 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It can be divided into levels: no incidents, medium vulnerability incidents, high vulnerability incidents.</t>
   </si>
   <si>
     <t>81</t>
@@ -1232,10 +1232,10 @@
     <t>safety</t>
   </si>
   <si>
-    <t xml:space="preserve">Percepción de seguridad en la localidad/comunidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentirse o no seguro/capaz de moverse libremente en la comunidad.</t>
+    <t xml:space="preserve">Perception of security in the locality/community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether or not you feel safe/able to move freely in the community.</t>
   </si>
   <si>
     <t>100</t>
@@ -1247,7 +1247,7 @@
     <t>intentions</t>
   </si>
   <si>
-    <t xml:space="preserve">Intenciones de permanecer en el país en los próximos 6 meses</t>
+    <t xml:space="preserve">Intentions to stay in the country in the next 6 months</t>
   </si>
   <si>
     <t>9</t>
@@ -1259,10 +1259,10 @@
     <t>education</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceso a educación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hay menores que no asisten a la escuela por razones económicas u otras razones.</t>
+    <t xml:space="preserve">access to education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are minors who do not attend school for economic or other reasons.</t>
   </si>
   <si>
     <t>5_2_5</t>
@@ -1271,10 +1271,10 @@
     <t>document</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado de la documentación legal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluye los documentos y permisos que determinan si la persona está en situación regular o irregular.</t>
+    <t xml:space="preserve">Status of legal documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It includes the documents and permits that determine if the person is in a regular or irregular situation.</t>
   </si>
   <si>
     <t>16</t>
@@ -3019,6 +3019,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="20.00390625"/>
+    <col customWidth="1" min="3" max="3" width="32.57421875"/>
+    <col customWidth="1" min="4" max="4" width="23.140625"/>
+    <col customWidth="1" min="5" max="5" width="57.00390625"/>
+    <col customWidth="1" min="6" max="6" width="34.00390625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -7558,11 +7565,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.421875"/>
+    <col customWidth="1" min="2" max="2" width="32.57421875"/>
+    <col customWidth="1" min="3" max="3" width="34.8515625"/>
+    <col customWidth="1" min="4" max="4" width="62.140625"/>
+    <col customWidth="1" min="5" max="5" width="105.8515625"/>
+    <col customWidth="1" min="6" max="6" width="46.00390625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
